--- a/raw_data/cups_db.xlsx
+++ b/raw_data/cups_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicho\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alisa/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6795050A-771C-4092-82E0-F01389876A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF5A84C-4031-594D-9BC2-1DF91A60BDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{55055081-DE6E-4B45-951F-D4AB37DE9E6F}"/>
+    <workbookView xWindow="5340" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{55055081-DE6E-4B45-951F-D4AB37DE9E6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,17 +430,17 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B2:B16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" style="1" customWidth="1"/>
     <col min="5" max="8" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>989965</v>
       </c>
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>989966</v>
       </c>
@@ -482,7 +482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>989967</v>
       </c>
@@ -496,7 +496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>989968</v>
       </c>
@@ -510,7 +510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>989969</v>
       </c>
@@ -524,7 +524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>989970</v>
       </c>
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>989971</v>
       </c>
@@ -552,7 +552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>989972</v>
       </c>
@@ -566,7 +566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>989973</v>
       </c>
@@ -580,7 +580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>989974</v>
       </c>
@@ -594,7 +594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>989975</v>
       </c>
@@ -608,7 +608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>989976</v>
       </c>
@@ -622,7 +622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>989977</v>
       </c>
@@ -636,7 +636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>989978</v>
       </c>
@@ -650,7 +650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>989979</v>
       </c>
